--- a/overnight computing results.xlsx
+++ b/overnight computing results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Medien\Dokumente\UNI\Datamining\DataMiningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E90ED-AE5A-4F8D-B77A-845BCAC3DD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197F02A-34A0-46DD-8BBB-0959D4E3C33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="0" windowWidth="18900" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1219,15 +1219,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E213" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="59" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
